--- a/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3882</v>
+        <v>3709</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32662</v>
+        <v>30141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03397909839537484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009520179428094997</v>
+        <v>0.009095412799193733</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08009366490835269</v>
+        <v>0.07391312578960574</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>5740</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16771</v>
+        <v>15254</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01583284337333973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003447239113102646</v>
+        <v>0.003479984543524882</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04626412582669117</v>
+        <v>0.04207858970468423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -783,19 +783,19 @@
         <v>19596</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9781</v>
+        <v>8656</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40493</v>
+        <v>37862</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02543931944421612</v>
+        <v>0.02543931944421611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01269789237236422</v>
+        <v>0.0112374987709997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05256717130222904</v>
+        <v>0.04915168703621282</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15470</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4659</v>
+        <v>4510</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34047</v>
+        <v>33284</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03793523238562462</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01142561764865905</v>
+        <v>0.0110600141326146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08348979607086884</v>
+        <v>0.08162067896713708</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>13411</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5241</v>
+        <v>4670</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31907</v>
+        <v>29125</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03699333543052351</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0144574584463213</v>
+        <v>0.01288283943127063</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.088015774250941</v>
+        <v>0.08034316079599732</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>28880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14782</v>
+        <v>15720</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52241</v>
+        <v>52356</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0374919678232361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01918959101689136</v>
+        <v>0.02040762997099452</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0678186287590566</v>
+        <v>0.06796773300352071</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>25528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13558</v>
+        <v>13307</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45769</v>
+        <v>44753</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06260127629998458</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03324669405241982</v>
+        <v>0.03263264489733859</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1122363268544281</v>
+        <v>0.1097432640063866</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -904,19 +904,19 @@
         <v>28078</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16080</v>
+        <v>16814</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44560</v>
+        <v>43972</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07745461919705747</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04435693666740387</v>
+        <v>0.04638242469051095</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1229191056184914</v>
+        <v>0.1212972378478049</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -925,19 +925,19 @@
         <v>53607</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36631</v>
+        <v>37374</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78335</v>
+        <v>75434</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06959138334260788</v>
+        <v>0.06959138334260787</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04755338831997855</v>
+        <v>0.04851840341638818</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1016936886837472</v>
+        <v>0.09792785649505092</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>352938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>327488</v>
+        <v>327562</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>372793</v>
+        <v>372600</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.865484392919016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.803073593983752</v>
+        <v>0.8032560265127862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9141718979601868</v>
+        <v>0.9136997694439936</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>181</v>
@@ -975,19 +975,19 @@
         <v>315284</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295263</v>
+        <v>294545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>332181</v>
+        <v>329951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8697192019990793</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8144927936948242</v>
+        <v>0.8125116291954111</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9163306492996077</v>
+        <v>0.9101794445873082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>330</v>
@@ -996,19 +996,19 @@
         <v>668222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>634020</v>
+        <v>638061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>690897</v>
+        <v>693292</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8674773293899399</v>
+        <v>0.8674773293899398</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8230766254976966</v>
+        <v>0.8283229322591942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8969130018655411</v>
+        <v>0.9000228770109566</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>12032</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6306</v>
+        <v>6154</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25032</v>
+        <v>24243</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02523086804140738</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01322214980568258</v>
+        <v>0.01290434486206899</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05249049668177184</v>
+        <v>0.05083482446902887</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -1121,19 +1121,19 @@
         <v>21737</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12645</v>
+        <v>12524</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34993</v>
+        <v>33306</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04337938811112917</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02523549722501532</v>
+        <v>0.02499363062432197</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06983503615199524</v>
+        <v>0.06646870947955977</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -1142,19 +1142,19 @@
         <v>33769</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>21952</v>
+        <v>22329</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48368</v>
+        <v>47275</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03452960452346314</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02244622333235173</v>
+        <v>0.02283192394049995</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04945769595153372</v>
+        <v>0.04834014221862785</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>14926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7057</v>
+        <v>5727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30975</v>
+        <v>28836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0312994802566657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0147983557358292</v>
+        <v>0.01200935198518646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06495262133180428</v>
+        <v>0.06046662863468458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1192,19 +1192,19 @@
         <v>31204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21609</v>
+        <v>21593</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44095</v>
+        <v>44181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06227399914984471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04312455872395125</v>
+        <v>0.04309263062452261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08800026161383373</v>
+        <v>0.0881714459440832</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1213,19 +1213,19 @@
         <v>46131</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32509</v>
+        <v>32591</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64364</v>
+        <v>67114</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04716985909414765</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03324095005349752</v>
+        <v>0.03332512425511555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06581338731967643</v>
+        <v>0.06862555858438855</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>62014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44253</v>
+        <v>45633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82309</v>
+        <v>84887</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1300377240957645</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09279427520857614</v>
+        <v>0.09568978054621965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1725951285676526</v>
+        <v>0.1780006535130093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -1263,19 +1263,19 @@
         <v>69785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55316</v>
+        <v>55528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86747</v>
+        <v>88522</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1392674404571356</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1103930264742531</v>
+        <v>0.1108166904820215</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1731191224995537</v>
+        <v>0.1766622080140059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>110</v>
@@ -1284,19 +1284,19 @@
         <v>131798</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108782</v>
+        <v>109680</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>155681</v>
+        <v>157551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1347667433171001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1112318567620839</v>
+        <v>0.1121498902608657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1591877474900673</v>
+        <v>0.1610994489068256</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>387918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>361144</v>
+        <v>363004</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>407649</v>
+        <v>410437</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8134319276061622</v>
+        <v>0.8134319276061625</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7572906854496035</v>
+        <v>0.7611896411009895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8548078838181781</v>
+        <v>0.860653636081934</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>345</v>
@@ -1334,19 +1334,19 @@
         <v>378357</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>357274</v>
+        <v>357451</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>397915</v>
+        <v>398240</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7550791722818905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7130038351372766</v>
+        <v>0.7133570181757085</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7941090837596964</v>
+        <v>0.7947594186622035</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>588</v>
@@ -1355,19 +1355,19 @@
         <v>766275</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>735069</v>
+        <v>735478</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>794410</v>
+        <v>795832</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.783533793065289</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7516249260815434</v>
+        <v>0.7520430112427587</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8123021963239392</v>
+        <v>0.813756744268877</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>42296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29482</v>
+        <v>29679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58661</v>
+        <v>57756</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06823563490251904</v>
+        <v>0.06823563490251902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04756253309279774</v>
+        <v>0.04788047905188597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09463718080123998</v>
+        <v>0.09317692171317543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -1480,19 +1480,19 @@
         <v>47505</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36599</v>
+        <v>37195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59999</v>
+        <v>60102</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07635713980279137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0588280788781728</v>
+        <v>0.05978567708017103</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09643934137406389</v>
+        <v>0.09660554434758298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -1501,19 +1501,19 @@
         <v>89801</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73610</v>
+        <v>73507</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110423</v>
+        <v>110723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07230387534971328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05926828346328188</v>
+        <v>0.05918468244969988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08890798150274394</v>
+        <v>0.08915007100811261</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>41678</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28647</v>
+        <v>29092</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56290</v>
+        <v>56886</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06723864546909343</v>
+        <v>0.06723864546909344</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04621659676919852</v>
+        <v>0.0469340240605271</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09081183096472856</v>
+        <v>0.09177320942344647</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>54</v>
@@ -1551,19 +1551,19 @@
         <v>40249</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30817</v>
+        <v>31096</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51675</v>
+        <v>52506</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.06469451119765109</v>
+        <v>0.0646945111976511</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04953371095912705</v>
+        <v>0.04998175530594721</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08305999618018316</v>
+        <v>0.08439532171926253</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>90</v>
@@ -1572,19 +1572,19 @@
         <v>81927</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>66418</v>
+        <v>65719</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>100435</v>
+        <v>100607</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06596423265111585</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05347731372863972</v>
+        <v>0.0529140746495659</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08086622872768137</v>
+        <v>0.08100518849347635</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>83146</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66076</v>
+        <v>66106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102501</v>
+        <v>101704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1341396791541169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1066005687593899</v>
+        <v>0.1066485329806498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1653650830911804</v>
+        <v>0.1640794413569657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>190</v>
@@ -1622,19 +1622,19 @@
         <v>129795</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112958</v>
+        <v>113421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148501</v>
+        <v>147111</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2086263107010006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1815634510446663</v>
+        <v>0.1823074457732292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2386941700129999</v>
+        <v>0.2364604155059916</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>270</v>
@@ -1643,19 +1643,19 @@
         <v>212941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>189196</v>
+        <v>188897</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238110</v>
+        <v>239148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1714516713224804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1523328492975491</v>
+        <v>0.152092392664981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1917164435665642</v>
+        <v>0.1925528818523035</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>452729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>427690</v>
+        <v>428895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474798</v>
+        <v>476969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7303860404742707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6899899778208274</v>
+        <v>0.6919351508902005</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.76598982439247</v>
+        <v>0.7694918657473023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>539</v>
@@ -1693,19 +1693,19 @@
         <v>404591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>383944</v>
+        <v>383564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>425310</v>
+        <v>424480</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6503220382985571</v>
+        <v>0.6503220382985569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6171358845228324</v>
+        <v>0.6165240238477265</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6836248214816041</v>
+        <v>0.6822915312589072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>932</v>
@@ -1714,19 +1714,19 @@
         <v>857320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>824613</v>
+        <v>827946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>889107</v>
+        <v>890891</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6902802206766906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6639457941659322</v>
+        <v>0.6666299746134577</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7158737339895923</v>
+        <v>0.717310252499481</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>56771</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43632</v>
+        <v>42819</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76202</v>
+        <v>72834</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08102972928563815</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06227683522463121</v>
+        <v>0.06111642559052212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1087643830631842</v>
+        <v>0.1039567893729664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>106</v>
@@ -1839,19 +1839,19 @@
         <v>71125</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59185</v>
+        <v>59108</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85492</v>
+        <v>84578</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09657279843147275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08036001700185909</v>
+        <v>0.08025546701733464</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1160797383666765</v>
+        <v>0.1148382188242096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>156</v>
@@ -1860,19 +1860,19 @@
         <v>127896</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>107256</v>
+        <v>109627</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>148702</v>
+        <v>149975</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08899528204492908</v>
+        <v>0.08899528204492911</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0746333361969657</v>
+        <v>0.07628278647209964</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1034730351423441</v>
+        <v>0.1043588181355378</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>60694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46441</v>
+        <v>47079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78627</v>
+        <v>77889</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08662875544521452</v>
+        <v>0.08662875544521449</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06628601646367346</v>
+        <v>0.06719579262815475</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1122257763570491</v>
+        <v>0.1111722027081354</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -1910,19 +1910,19 @@
         <v>93932</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80334</v>
+        <v>80360</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109677</v>
+        <v>110129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.127539354102268</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1090759741554908</v>
+        <v>0.1091118094314096</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1489179333645829</v>
+        <v>0.1495312993069041</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>202</v>
@@ -1931,19 +1931,19 @@
         <v>154626</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133739</v>
+        <v>132728</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>176909</v>
+        <v>175672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.107594726127026</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0930611818706337</v>
+        <v>0.09235753807081962</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1231004633730631</v>
+        <v>0.1222395568813456</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>122530</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>103303</v>
+        <v>103343</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>144123</v>
+        <v>142670</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1748885046642057</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1474451442739183</v>
+        <v>0.1475032827660434</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2057091453977445</v>
+        <v>0.2036341318496561</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>255</v>
@@ -1981,19 +1981,19 @@
         <v>154519</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>137970</v>
+        <v>137511</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>171984</v>
+        <v>172459</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2098032272351069</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1873334739446948</v>
+        <v>0.186709782495343</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.233517485446479</v>
+        <v>0.2341621033592086</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>380</v>
@@ -2002,19 +2002,19 @@
         <v>277049</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>252858</v>
+        <v>250293</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>304554</v>
+        <v>304247</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1927816930753923</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.175948464338947</v>
+        <v>0.1741639025777427</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2119206390821045</v>
+        <v>0.2117075441723213</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>460623</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>434229</v>
+        <v>434215</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>485558</v>
+        <v>486008</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6574530106049418</v>
+        <v>0.6574530106049417</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6197803232860639</v>
+        <v>0.6197615687166368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6930439709856895</v>
+        <v>0.6936859696025992</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>636</v>
@@ -2052,19 +2052,19 @@
         <v>416918</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>395319</v>
+        <v>395282</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>437840</v>
+        <v>438494</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5660846202311524</v>
+        <v>0.5660846202311522</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5367567402940258</v>
+        <v>0.5367069526518462</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5944921114156364</v>
+        <v>0.5953792118925457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1067</v>
@@ -2073,19 +2073,19 @@
         <v>877541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>843293</v>
+        <v>844973</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>911762</v>
+        <v>910251</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6106282987526525</v>
+        <v>0.6106282987526526</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5867966698475583</v>
+        <v>0.5879660226458562</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6344404062192415</v>
+        <v>0.6333893394452513</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>65439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52009</v>
+        <v>52638</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81170</v>
+        <v>80859</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.107582592676566</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08550373544889744</v>
+        <v>0.08653812110367877</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1334444580589854</v>
+        <v>0.1329343137289575</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -2198,19 +2198,19 @@
         <v>87289</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74710</v>
+        <v>73990</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101132</v>
+        <v>101650</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1435367736709894</v>
+        <v>0.1435367736709895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.122851205080081</v>
+        <v>0.1216675010922901</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1662997403274506</v>
+        <v>0.1671512406565926</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>209</v>
@@ -2219,19 +2219,19 @@
         <v>152728</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>132351</v>
+        <v>133169</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>172855</v>
+        <v>174909</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1255577329802974</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1088060943552777</v>
+        <v>0.1094786277434859</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1421044590435723</v>
+        <v>0.1437925202501993</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>39009</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27620</v>
+        <v>28726</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50630</v>
+        <v>51338</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06413080353498615</v>
+        <v>0.06413080353498614</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04540863622230457</v>
+        <v>0.04722560489791812</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08323653088890862</v>
+        <v>0.08440010657821108</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>162</v>
@@ -2269,19 +2269,19 @@
         <v>100120</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87578</v>
+        <v>85543</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114934</v>
+        <v>115688</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1646352050061983</v>
+        <v>0.1646352050061984</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1440112951572725</v>
+        <v>0.1406643134456346</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1889940846171147</v>
+        <v>0.1902344926697724</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>206</v>
@@ -2290,19 +2290,19 @@
         <v>139129</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>121708</v>
+        <v>120657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159307</v>
+        <v>157929</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1143775528036676</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1000562980961963</v>
+        <v>0.09919177671928547</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1309662611052685</v>
+        <v>0.1298333548903328</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>130554</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>111768</v>
+        <v>111963</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>150031</v>
+        <v>151059</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2146336126226426</v>
+        <v>0.2146336126226425</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1837495712999591</v>
+        <v>0.1840698870977151</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2466536293233385</v>
+        <v>0.2483437656346494</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>265</v>
@@ -2340,19 +2340,19 @@
         <v>148434</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>133287</v>
+        <v>132366</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>165434</v>
+        <v>164197</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2440810981920282</v>
+        <v>0.2440810981920283</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2191743539617879</v>
+        <v>0.2176599959696836</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2720367059016652</v>
+        <v>0.2700012612263357</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>416</v>
@@ -2361,19 +2361,19 @@
         <v>278988</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>256262</v>
+        <v>253006</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>307384</v>
+        <v>303609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2293557581440191</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2106727661764489</v>
+        <v>0.207996411021983</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2527003629590155</v>
+        <v>0.249597258537478</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>373264</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>351241</v>
+        <v>350560</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>397421</v>
+        <v>395809</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6136529911658053</v>
+        <v>0.6136529911658052</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5774468760712308</v>
+        <v>0.5763284754321139</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6533676194208301</v>
+        <v>0.65071779629979</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>439</v>
@@ -2411,19 +2411,19 @@
         <v>272290</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>252219</v>
+        <v>252130</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>291233</v>
+        <v>292524</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4477469231307841</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.414742412034687</v>
+        <v>0.4145969929226262</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4788972177190735</v>
+        <v>0.4810197426955828</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>832</v>
@@ -2432,19 +2432,19 @@
         <v>645553</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>617533</v>
+        <v>616153</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>677215</v>
+        <v>676397</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.530708956072016</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5076740801226665</v>
+        <v>0.5065390628350603</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5567383286987087</v>
+        <v>0.5560663087302249</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>49641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39583</v>
+        <v>40667</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61741</v>
+        <v>61319</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1219438401044849</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09723607722646851</v>
+        <v>0.09989939890266017</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1516682106062941</v>
+        <v>0.1506306621487764</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>125</v>
@@ -2557,19 +2557,19 @@
         <v>72271</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>61719</v>
+        <v>61868</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>83576</v>
+        <v>84718</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1645651993855789</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1405367725197653</v>
+        <v>0.1408767473751776</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1903067666545661</v>
+        <v>0.1929072455583641</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>197</v>
@@ -2578,19 +2578,19 @@
         <v>121912</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>105757</v>
+        <v>106796</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>138363</v>
+        <v>136723</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1440625404638979</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1249720326580589</v>
+        <v>0.1262002108687321</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1635024256059941</v>
+        <v>0.1615642148554198</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>33454</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24564</v>
+        <v>25109</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43515</v>
+        <v>44687</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08218046997159394</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06034131518008313</v>
+        <v>0.06167980833867259</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1068956094761234</v>
+        <v>0.1097736299945593</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>124</v>
@@ -2628,19 +2628,19 @@
         <v>65499</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54722</v>
+        <v>55288</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>76666</v>
+        <v>76373</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1491444834158027</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1246037725939067</v>
+        <v>0.1258932161811703</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.174572476420595</v>
+        <v>0.173905716793711</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>170</v>
@@ -2649,19 +2649,19 @@
         <v>98953</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>85721</v>
+        <v>84191</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>115134</v>
+        <v>114467</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1169319882999446</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1012961385072348</v>
+        <v>0.09948710758740845</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1360527363227796</v>
+        <v>0.1352641490246316</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>92200</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>78755</v>
+        <v>79405</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>107822</v>
+        <v>107459</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2264919267211626</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1934635738184159</v>
+        <v>0.1950587623569462</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2648674601572237</v>
+        <v>0.2639741566969929</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>228</v>
@@ -2699,19 +2699,19 @@
         <v>112736</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>100800</v>
+        <v>100425</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>127054</v>
+        <v>126872</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2567046176875145</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2295266473311237</v>
+        <v>0.2286712677583027</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2893077003997707</v>
+        <v>0.2888941367016939</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>363</v>
@@ -2720,19 +2720,19 @@
         <v>204936</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>183074</v>
+        <v>186958</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>222616</v>
+        <v>226181</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2421710479366305</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2163368672993623</v>
+        <v>0.2209263523627603</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2630632099298237</v>
+        <v>0.2672762608408706</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>231785</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>214954</v>
+        <v>213455</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>248647</v>
+        <v>246905</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5693837632027585</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5280376700617198</v>
+        <v>0.5243562856880997</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6108074266712468</v>
+        <v>0.6065264731381365</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>350</v>
@@ -2770,19 +2770,19 @@
         <v>188659</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>173969</v>
+        <v>173833</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>203364</v>
+        <v>203552</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4295856995111039</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3961349585984512</v>
+        <v>0.395825490560573</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4630684385048235</v>
+        <v>0.4634975791208926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>667</v>
@@ -2791,19 +2791,19 @@
         <v>420444</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>399388</v>
+        <v>398348</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>444703</v>
+        <v>446363</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.496834423299527</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4719523819844989</v>
+        <v>0.4707237811024234</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5255010479363008</v>
+        <v>0.5274629665609325</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>52317</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>42739</v>
+        <v>41398</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>64357</v>
+        <v>64152</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1686572260662417</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1377803897403</v>
+        <v>0.1334572561847659</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2074702020581106</v>
+        <v>0.2068113878136661</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>165</v>
@@ -2916,19 +2916,19 @@
         <v>94786</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>81721</v>
+        <v>82428</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>108039</v>
+        <v>109377</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.204012573114259</v>
+        <v>0.2040125731142589</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1758919171872219</v>
+        <v>0.1774143463968657</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2325376324357672</v>
+        <v>0.2354167827103634</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>242</v>
@@ -2937,19 +2937,19 @@
         <v>147103</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>130534</v>
+        <v>131764</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>165908</v>
+        <v>164753</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1898578661638359</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1684729620083157</v>
+        <v>0.1700602452060404</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.214128273554484</v>
+        <v>0.212637258894431</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>47851</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>38069</v>
+        <v>38366</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>58994</v>
+        <v>59172</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1542596178052471</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1227234461284979</v>
+        <v>0.1236833656064548</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1901815450199164</v>
+        <v>0.1907564390669453</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>149</v>
@@ -2987,19 +2987,19 @@
         <v>77233</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>66788</v>
+        <v>66295</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>90337</v>
+        <v>90809</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1662316771507897</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1437505984211719</v>
+        <v>0.14268951753057</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1944363630400422</v>
+        <v>0.1954528639169035</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>223</v>
@@ -3008,19 +3008,19 @@
         <v>125084</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>110893</v>
+        <v>110663</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>142646</v>
+        <v>140519</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1614385975807015</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1431239247458335</v>
+        <v>0.1428262329313104</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1841056785913479</v>
+        <v>0.18136006897605</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>70506</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>58345</v>
+        <v>58326</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>83461</v>
+        <v>82717</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2272941705860432</v>
+        <v>0.2272941705860431</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1880903810541934</v>
+        <v>0.1880276999915396</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2690575491740614</v>
+        <v>0.2666586947071206</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>262</v>
@@ -3058,19 +3058,19 @@
         <v>124819</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>111813</v>
+        <v>111742</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>139377</v>
+        <v>138339</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2686531807782307</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2406594802321414</v>
+        <v>0.2405084876310628</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2999872311735044</v>
+        <v>0.2977536731458402</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>369</v>
@@ -3079,19 +3079,19 @@
         <v>195325</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>177619</v>
+        <v>178312</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>214833</v>
+        <v>214279</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2520948743858514</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2292434640505312</v>
+        <v>0.2301373293234869</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.277273041677865</v>
+        <v>0.2765585032469653</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>139524</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>124660</v>
+        <v>124796</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>154818</v>
+        <v>153785</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.449788985542468</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4018714373816739</v>
+        <v>0.4023117266831914</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.499092789966663</v>
+        <v>0.4957627549941742</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>305</v>
@@ -3129,19 +3129,19 @@
         <v>167772</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>150590</v>
+        <v>153036</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>182884</v>
+        <v>182853</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3611025689567206</v>
+        <v>0.3611025689567205</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3241216898041065</v>
+        <v>0.3293876087005544</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3936303575198416</v>
+        <v>0.3935628731714216</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>505</v>
@@ -3150,19 +3150,19 @@
         <v>307295</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>285832</v>
+        <v>285518</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>328708</v>
+        <v>328583</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3966086618696112</v>
+        <v>0.3966086618696111</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3689067780425006</v>
+        <v>0.3685017312300608</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4242452098476029</v>
+        <v>0.4240842972682517</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>292352</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>256050</v>
+        <v>257830</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>328405</v>
+        <v>324399</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08280306606750837</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.07252128887678948</v>
+        <v>0.07302546495762412</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09301426404236612</v>
+        <v>0.09187985834880143</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>615</v>
@@ -3275,19 +3275,19 @@
         <v>400453</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>370467</v>
+        <v>370620</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>432396</v>
+        <v>431820</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1072412014473603</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.09921093099801832</v>
+        <v>0.09925191368422001</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.115795493189505</v>
+        <v>0.115641259183286</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>937</v>
@@ -3296,19 +3296,19 @@
         <v>692806</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>648351</v>
+        <v>648478</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>741851</v>
+        <v>740806</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.09536431750406522</v>
+        <v>0.09536431750406524</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08924519861844643</v>
+        <v>0.0892627117142159</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1021154252015032</v>
+        <v>0.1019715680959076</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>253081</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>224763</v>
+        <v>220202</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>290828</v>
+        <v>285182</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07168031243063422</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06365982998994218</v>
+        <v>0.06236794343647275</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08237141740192618</v>
+        <v>0.08077231453688985</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>667</v>
@@ -3346,19 +3346,19 @@
         <v>421648</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>387407</v>
+        <v>388343</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>456427</v>
+        <v>452835</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.112917128242905</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1037472927548732</v>
+        <v>0.1039980228248658</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1222309179302206</v>
+        <v>0.1212690734967657</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>940</v>
@@ -3367,19 +3367,19 @@
         <v>674729</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>630715</v>
+        <v>631251</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>719139</v>
+        <v>723886</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.09287611987705546</v>
+        <v>0.09287611987705548</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08681756936292685</v>
+        <v>0.08689136638221429</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0989891428743627</v>
+        <v>0.09964258445198386</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>586479</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>545311</v>
+        <v>543388</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>636538</v>
+        <v>634731</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1661087543934552</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1544486832251382</v>
+        <v>0.1539041646958808</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1802871265730293</v>
+        <v>0.1797752549061356</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1285</v>
@@ -3417,19 +3417,19 @@
         <v>768165</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>727232</v>
+        <v>726308</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>808571</v>
+        <v>808374</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2057141266702742</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1947523906327522</v>
+        <v>0.1945048048982255</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2165349494580392</v>
+        <v>0.2164822775232035</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1938</v>
@@ -3438,19 +3438,19 @@
         <v>1354644</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1296657</v>
+        <v>1291643</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1419172</v>
+        <v>1408035</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1864659965346752</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1784842014099836</v>
+        <v>0.1777939305523721</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1953483328486681</v>
+        <v>0.1938153198679874</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>2398780</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2335265</v>
+        <v>2339323</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2457973</v>
+        <v>2458271</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6794078671084023</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6614185250456367</v>
+        <v>0.6625679175518112</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6961730754728802</v>
+        <v>0.6962574314696277</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2795</v>
@@ -3488,19 +3488,19 @@
         <v>2143871</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2087783</v>
+        <v>2098293</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2198853</v>
+        <v>2201828</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5741275436394604</v>
+        <v>0.5741275436394603</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5591071137620498</v>
+        <v>0.5619218476837535</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5888518452903638</v>
+        <v>0.5896484173043306</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4921</v>
@@ -3509,19 +3509,19 @@
         <v>4542651</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4458849</v>
+        <v>4464855</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4619743</v>
+        <v>4625853</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.6252935660842041</v>
+        <v>0.6252935660842039</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6137581766057214</v>
+        <v>0.6145849557046782</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6359051214955677</v>
+        <v>0.6367461588315723</v>
       </c>
     </row>
     <row r="43">
